--- a/Mechanical System/partlist.xlsx
+++ b/Mechanical System/partlist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
   <si>
     <t>Number</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.wegertseder.com/ArticleDetails.aspx?AKNUM=1074 </t>
+  </si>
+  <si>
+    <t>Non-Ferromagnetic</t>
   </si>
 </sst>
 </file>
@@ -603,14 +606,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
     <col min="3" max="3" width="52.140625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -809,6 +813,9 @@
         <f t="shared" si="0"/>
         <v>103.19999999999999</v>
       </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
       <c r="H8" s="3" t="s">
         <v>26</v>
       </c>
@@ -834,6 +841,9 @@
         <f t="shared" si="0"/>
         <v>24.599999999999998</v>
       </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
       <c r="H9" s="3" t="s">
         <v>30</v>
       </c>
@@ -859,6 +869,9 @@
         <f t="shared" si="0"/>
         <v>39.32</v>
       </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>47</v>
       </c>
@@ -884,6 +897,9 @@
         <f t="shared" si="0"/>
         <v>168.15</v>
       </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
       <c r="H11" s="3" t="s">
         <v>33</v>
       </c>
@@ -909,6 +925,9 @@
         <f t="shared" si="0"/>
         <v>74.56</v>
       </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
       <c r="H12" s="3" t="s">
         <v>36</v>
       </c>
@@ -934,6 +953,9 @@
         <f t="shared" si="0"/>
         <v>30.240000000000002</v>
       </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
       <c r="H13" s="3" t="s">
         <v>39</v>
       </c>
@@ -1034,6 +1056,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
       <c r="H17" s="3" t="s">
         <v>48</v>
       </c>
@@ -1058,6 +1083,9 @@
       <c r="F18">
         <f t="shared" si="0"/>
         <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>51</v>
